--- a/utils/files/dictionary.xlsx
+++ b/utils/files/dictionary.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D1CD3-AF94-4EC5-A756-E13334BC86F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
   <si>
     <t>Operation</t>
   </si>
@@ -246,14 +254,167 @@
   </si>
   <si>
     <t>AH Assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>pic shows building #,the correct is #</t>
+  </si>
+  <si>
+    <t>pic shows street #,the correct is #</t>
+  </si>
+  <si>
+    <t>pic shows apt #,the correct is apt#</t>
+  </si>
+  <si>
+    <t>pic shows unit #,the correct is unit#</t>
+  </si>
+  <si>
+    <t>Bad pic - nothing</t>
+  </si>
+  <si>
+    <t>Bad pic - by stairs</t>
+  </si>
+  <si>
+    <t>Bad pic - too dark to tell</t>
+  </si>
+  <si>
+    <t>Bad pic - no box in pic</t>
+  </si>
+  <si>
+    <t>Bad pic - only box in pic</t>
+  </si>
+  <si>
+    <t>Bad pic - damaged pic</t>
+  </si>
+  <si>
+    <t>Bad pic - lobby</t>
+  </si>
+  <si>
+    <t>Bad pic - outside</t>
+  </si>
+  <si>
+    <t>Bad pic - outside building</t>
+  </si>
+  <si>
+    <t>Bad pic - outside gate</t>
+  </si>
+  <si>
+    <t>Bad pic - mailroom</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Good pic</t>
+  </si>
+  <si>
+    <t>Need better pic-Suggest driver to take pic of the building # as well</t>
+  </si>
+  <si>
+    <t>no pic</t>
+  </si>
+  <si>
+    <t>Bad pic - doorman</t>
+  </si>
+  <si>
+    <t>Bad pic - garage door</t>
+  </si>
+  <si>
+    <t>Bad pic - have street#,but leave at outside gate</t>
+  </si>
+  <si>
+    <t>Bad pic - have building#,but leave at outside building</t>
+  </si>
+  <si>
+    <t>Bad pic - outside building,although there is a street number but driver was not delivered to apt#</t>
+  </si>
+  <si>
+    <t>Bad pic - inside door but not delivered to apt#</t>
+  </si>
+  <si>
+    <t>Bad pic - lawn</t>
+  </si>
+  <si>
+    <t>Bad pic - near stairs</t>
+  </si>
+  <si>
+    <t>Bad pic - in the trunk</t>
+  </si>
+  <si>
+    <t>Bad pic - have street# but no apt#,cannot be confirmed</t>
+  </si>
+  <si>
+    <t>Bad pic - have street# but no unit#,cannot be confirmed</t>
+  </si>
+  <si>
+    <t>Bad pic - no apt#,cannot be compared with other front door of the same order and Google Maps does not have pic of this address,cannot be confirmed</t>
+  </si>
+  <si>
+    <t>Bad pic - no apt#,cannot be compared with other front door of the same order and Google Maps does not have pic of this address's front door,cannot be confirmed</t>
+  </si>
+  <si>
+    <t>Bad pic - pic was no apt #, but compared with other pics, not the same front door</t>
+  </si>
+  <si>
+    <t>Bad pic - have street# but compared with other pics, not the same front door</t>
+  </si>
+  <si>
+    <t>Bad pic - have apt# but compared with other pics, not the same front door</t>
+  </si>
+  <si>
+    <t>POD Valid?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POD Quality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>提示</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>周四</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +446,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +503,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF7E3"/>
+        <bgColor rgb="FFEEF7E3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -335,11 +533,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,8 +558,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -628,1316 +858,2239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="B1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G2" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G3" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G4" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G5" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G6" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G7" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F25" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.4">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.4">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.4">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.4">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E29" s="4"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.4">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.4">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.4">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="18">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="F33" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G33" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G34" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G35" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="F36" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G36" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G37" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G39" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="F40" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G40" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="F41" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G41" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G42" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G43" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G44" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G45" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G46" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.4">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E47" s="4"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.4">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.4">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.4">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E50" s="4"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.4">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E51" s="4"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.4">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.4">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="F53" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.4">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="F54" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.4">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.4">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.4">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="F57" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.4">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E58" s="4"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.4">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E59" s="4"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.4">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F60" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.4">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.4">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.4">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.4">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F64" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.4">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F65" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.4">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.4">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.4">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F68" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.4">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F69" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.4">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F70" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.4">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.4">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.4">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.4">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.4">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.4">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.4">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.4">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.4">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.4">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B80" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.4">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.4">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.4">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B83" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.4">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.4">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.4">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.4">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.4">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="B88" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="F88" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.4">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="B89" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="F89" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.4">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="B90" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="F90" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.4">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="B91" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="F91" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.4">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="B92" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="F92" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.4">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="B93" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="F93" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.4">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="F94" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.4">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.4">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="F96" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.4">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="F97" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.4">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="B98" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="F98" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="14.4">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="F99" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" ht="14.4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" ht="14.4">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="14.4">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" ht="14.4">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" ht="14.4">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" ht="14.4">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="14.4">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="14.4">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="14.4">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="14.4">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="14.4">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="14.4">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="14.4">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="14.4">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="14.4">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="14.4">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.4">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="14.4">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="14.4">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="14.4">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.4">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>68</v>
       </c>
     </row>

--- a/utils/files/dictionary.xlsx
+++ b/utils/files/dictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D1CD3-AF94-4EC5-A756-E13334BC86F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCE32C-FF2F-42FD-A32D-0F795AC68CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="116">
   <si>
     <t>Operation</t>
   </si>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3094,6 +3094,28 @@
         <v>68</v>
       </c>
     </row>
+    <row r="122" spans="1:7" ht="14.4">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.4">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utils/files/dictionary.xlsx
+++ b/utils/files/dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCE32C-FF2F-42FD-A32D-0F795AC68CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2709C742-F52C-41EA-9468-438BB55D2932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="117">
   <si>
     <t>Operation</t>
   </si>
@@ -409,12 +409,15 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Package not received by AxleHire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,21 +864,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" customWidth="1"/>
+    <col min="5" max="5" width="39.4140625" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
         <v>111</v>
       </c>
@@ -895,7 +898,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -914,7 +917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -933,7 +936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -952,7 +955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -971,7 +974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -990,7 +993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1020,7 +1023,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="14.4">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="14.4">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1105,7 +1108,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.4">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="14.4">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1150,7 +1153,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4">
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1167,7 +1170,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="14.4">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="14.4">
+    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="14.4">
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="14.4">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1252,7 +1255,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="14.4">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1269,7 +1272,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="14.4">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1286,7 +1289,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="14.4">
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1303,7 +1306,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="14.4">
+    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="14.4">
+    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="14.4">
+    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1354,18 +1357,24 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="14.4">
+    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="15"/>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="14.4">
+    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1376,7 +1385,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="14.4">
+    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1393,7 +1402,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="14.4">
+    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1404,7 +1413,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18">
+    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18">
+    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18">
+    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18">
+    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18">
+    <row r="43" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18">
+    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1681,7 +1690,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="14.4">
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1698,7 +1707,7 @@
       </c>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="14.4">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1715,7 +1724,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="14.4">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1726,7 +1735,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="14.4">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1737,7 +1746,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="14.4">
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1754,7 +1763,7 @@
       </c>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="14.4">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1771,7 +1780,7 @@
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="14.4">
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1788,7 +1797,7 @@
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="14.4">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1809,7 +1818,7 @@
       </c>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" ht="14.4">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1830,7 +1839,7 @@
       </c>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="14.4">
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1851,7 +1860,7 @@
       </c>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="14.4">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1862,7 +1871,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="14.4">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1873,7 +1882,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="14.4">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1890,7 +1899,7 @@
       </c>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="14.4">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1911,7 +1920,7 @@
       </c>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="14.4">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="14.4">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1953,7 +1962,7 @@
       </c>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="14.4">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1974,7 +1983,7 @@
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" ht="14.4">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1995,7 +2004,7 @@
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" ht="14.4">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2016,7 +2025,7 @@
       </c>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="14.4">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2037,7 +2046,7 @@
       </c>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" ht="14.4">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2058,7 +2067,7 @@
       </c>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" ht="14.4">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2079,7 +2088,7 @@
       </c>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="14.4">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2100,7 +2109,7 @@
       </c>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="14.4">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2111,7 +2120,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="14.4">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="14.4">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2153,7 +2162,7 @@
       </c>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" ht="14.4">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2174,7 +2183,7 @@
       </c>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="14.4">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2195,7 +2204,7 @@
       </c>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="14.4">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2216,7 +2225,7 @@
       </c>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="14.4">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2237,7 +2246,7 @@
       </c>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="14.4">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2258,7 +2267,7 @@
       </c>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="14.4">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2279,7 +2288,7 @@
       </c>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="14.4">
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="14.4">
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2321,7 +2330,7 @@
       </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" ht="14.4">
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2342,7 +2351,7 @@
       </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="14.4">
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2363,7 +2372,7 @@
       </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="14.4">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2384,7 +2393,7 @@
       </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="14.4">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2405,7 +2414,7 @@
       </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" ht="14.4">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2416,7 +2425,7 @@
       <c r="F86" s="14"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="14.4">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2427,7 +2436,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="14.4">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="14.4">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2469,7 +2478,7 @@
       </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" ht="14.4">
+    <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2490,7 +2499,7 @@
       </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" ht="14.4">
+    <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2511,7 +2520,7 @@
       </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" ht="14.4">
+    <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" ht="14.4">
+    <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" ht="14.4">
+    <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2574,7 +2583,7 @@
       </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" ht="14.4">
+    <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2585,7 +2594,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" ht="14.4">
+    <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2606,7 +2615,7 @@
       </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" ht="14.4">
+    <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2627,7 +2636,7 @@
       </c>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="14.4">
+    <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2648,7 +2657,7 @@
       </c>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" ht="14.4">
+    <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2669,13 +2678,13 @@
       </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" ht="14.4">
+    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2692,7 +2701,7 @@
       </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" ht="14.4">
+    <row r="102" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2709,7 +2718,7 @@
       </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" ht="14.4">
+    <row r="103" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" ht="14.4">
+    <row r="104" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" ht="14.4">
+    <row r="105" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2772,7 +2781,7 @@
       </c>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" ht="14.4">
+    <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2793,7 +2802,7 @@
       </c>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" ht="14.4">
+    <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" ht="14.4">
+    <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" ht="14.4">
+    <row r="109" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2856,7 +2865,7 @@
       </c>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" ht="14.4">
+    <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" ht="14.4">
+    <row r="111" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2898,7 +2907,7 @@
       </c>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" ht="14.4">
+    <row r="112" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2919,7 +2928,7 @@
       </c>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" ht="14.4">
+    <row r="113" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2940,7 +2949,7 @@
       </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" ht="14.4">
+    <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2961,7 +2970,7 @@
       </c>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" ht="14.4">
+    <row r="115" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" ht="14.4">
+    <row r="116" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3003,7 +3012,7 @@
       </c>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" ht="14.4">
+    <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3024,7 +3033,7 @@
       </c>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" ht="14.4">
+    <row r="118" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" ht="14.4">
+    <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3066,7 +3075,7 @@
       </c>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" ht="14.4">
+    <row r="120" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="14.4">
+    <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.4">
+    <row r="122" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14.4">
+    <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>

--- a/utils/files/dictionary.xlsx
+++ b/utils/files/dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2709C742-F52C-41EA-9468-438BB55D2932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE22FBA-74E0-451C-A244-1619F4002F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="120">
   <si>
     <t>Operation</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Outside Service Area</t>
   </si>
   <si>
-    <t>Out of delievery area</t>
-  </si>
-  <si>
     <t>pickup ok but delivery failed - redeliver requested</t>
   </si>
   <si>
@@ -131,13 +128,7 @@
     <t>Received late</t>
   </si>
   <si>
-    <t>Inbound missing</t>
-  </si>
-  <si>
     <t>Received missing</t>
-  </si>
-  <si>
-    <t>Inbound damaged</t>
   </si>
   <si>
     <t>Received damaged</t>
@@ -412,12 +403,34 @@
   <si>
     <t>Package not received by AxleHire</t>
   </si>
+  <si>
+    <t>Inbound missing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbound damaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AX linehaul issue</t>
+  </si>
+  <si>
+    <t>AX linehaul late</t>
+  </si>
+  <si>
+    <t>Out of delivery area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickup ok but delivery late for same day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,35 +566,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,11 +874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.4140625" customWidth="1"/>
     <col min="3" max="3" width="40.58203125" customWidth="1"/>
@@ -878,2251 +888,2257 @@
     <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>112</v>
+    <row r="1" spans="1:7" ht="14.5">
+      <c r="B1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.5">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G2" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.5">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G3" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G4" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G5" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.5">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G6" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.5">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="13"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="13"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F32" s="13"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.5">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.5">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.5">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.5">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.5">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.5">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.5">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.5">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.5">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.5">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.5">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.5">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.5">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.5">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.5">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F47" s="13"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.5">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.5">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.5">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F50" s="13"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.5">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F51" s="13"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.5">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.5">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.5">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.5">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
+      <c r="B55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.5">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
+      <c r="B56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.5">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
+      <c r="B57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.5">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F58" s="13"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.5">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F59" s="13"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.5">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.5">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>95</v>
+      <c r="B61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.5">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>86</v>
+      <c r="B62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.5">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>96</v>
+      <c r="B63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.5">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>87</v>
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.5">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>89</v>
+      <c r="B65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.5">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>97</v>
+      <c r="B66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.5">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>88</v>
+      <c r="B67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.5">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>98</v>
+      <c r="B68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.5">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>99</v>
+      <c r="B69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.5">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>90</v>
+      <c r="B70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.5">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F71" s="12"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.5">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>100</v>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.5">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
+      <c r="B73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="14.5">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>94</v>
+      <c r="B74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.5">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>80</v>
+      <c r="B75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.5">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>81</v>
+      <c r="B76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.5">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>102</v>
+      <c r="B77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.5">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>83</v>
+      <c r="B78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.5">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>103</v>
+      <c r="B79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.5">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>84</v>
+      <c r="B80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.5">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>82</v>
+      <c r="B81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.5">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>104</v>
+      <c r="B82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.5">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>105</v>
+      <c r="B83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.5">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>106</v>
+      <c r="B84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.5">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>107</v>
+      <c r="B85" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.5">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F86" s="12"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.5">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F87" s="12"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.5">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>108</v>
+      <c r="B88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.5">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>109</v>
+      <c r="B89" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.5">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>110</v>
+      <c r="B90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.5">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>76</v>
+      <c r="B91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.5">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>77</v>
+      <c r="B92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.5">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.5">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>79</v>
+      <c r="B94" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.5">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F95" s="12"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.5">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>93</v>
+      <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.5">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>93</v>
+      <c r="B97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.5">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>93</v>
+      <c r="B98" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="14.5">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>92</v>
+      <c r="B99" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" ht="14.5">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" ht="14.5">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7" t="s">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" ht="14.5">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B103" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" ht="14.5">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" ht="14.5">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="14.5">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="14.5">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="14.5">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="14.5">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="14.5">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B110" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="14.5">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="14.5">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B112" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="14.5">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="14.5">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B114" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="14.5">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="14.5">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F116" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B116" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.5">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="14.5">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="7" t="s">
+      <c r="B118" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="19" t="s">
+      <c r="F118" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="14.5">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" s="6" t="s">
+      <c r="B119" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="18" t="s">
+      <c r="F119" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="14.5">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.5">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F121" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F121" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.5">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B122" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.5">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>93</v>
+      <c r="B123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
